--- a/VS/10-2-23/Data/EURJPY.xlsx
+++ b/VS/10-2-23/Data/EURJPY.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Techincal Analysis Program\MT5\VS\10-2-23\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Techincal Analysis Program\MT5\VS\10-2-23\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04B6C19A-BC38-4CB2-AC61-6C20BA812F00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5CF6EF6-283A-4880-BBA4-E04B7205366A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -81,7 +81,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -137,7 +137,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -443,10 +443,22 @@
   <dimension ref="A1:M449"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A421" workbookViewId="0">
-      <selection activeCell="I449" sqref="I449"/>
+      <selection activeCell="F429" sqref="F429"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.21875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
